--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.61140000000002</v>
+        <v>-21.58250000000003</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>14.11429999999999</v>
+        <v>14.21209999999999</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.139</v>
+        <v>13.3471</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.44470000000002</v>
+        <v>-21.55880000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.27439999999999</v>
+        <v>14.38649999999999</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.08469999999999</v>
+        <v>-20.06369999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.74310000000001</v>
+        <v>13.09750000000001</v>
       </c>
     </row>
     <row r="17">
